--- a/admin/lists/Mailadressen.xlsx
+++ b/admin/lists/Mailadressen.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>Nachname</t>
   </si>
@@ -26,6 +26,15 @@
     <t>Email</t>
   </si>
   <si>
+    <t>Aaron</t>
+  </si>
+  <si>
+    <t>Anneliese</t>
+  </si>
+  <si>
+    <t>annelise@gmx.de</t>
+  </si>
+  <si>
     <t>Blobfisch</t>
   </si>
   <si>
@@ -35,37 +44,46 @@
     <t>Blobfisch@fischteich.de</t>
   </si>
   <si>
-    <t>Mustermann</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Max@mustermann.de</t>
-  </si>
-  <si>
-    <t>Mia</t>
-  </si>
-  <si>
-    <t>Mia@mustermann.de</t>
-  </si>
-  <si>
-    <t>Röckelein</t>
-  </si>
-  <si>
-    <t>Nina</t>
-  </si>
-  <si>
-    <t>nina-roeckelein@hotmail.de</t>
-  </si>
-  <si>
-    <t>Singer</t>
-  </si>
-  <si>
-    <t>Sarah</t>
-  </si>
-  <si>
-    <t>Sarah-singer@family.de</t>
+    <t>Caloni</t>
+  </si>
+  <si>
+    <t>Clara</t>
+  </si>
+  <si>
+    <t>Caloni@gmx.de</t>
+  </si>
+  <si>
+    <t>Domini</t>
+  </si>
+  <si>
+    <t>Dorothea</t>
+  </si>
+  <si>
+    <t>Domini@gmx.de</t>
+  </si>
+  <si>
+    <t>Emil</t>
+  </si>
+  <si>
+    <t>Eva</t>
+  </si>
+  <si>
+    <t>Fan</t>
+  </si>
+  <si>
+    <t>Fabian</t>
+  </si>
+  <si>
+    <t>Fabian@gmx.de</t>
+  </si>
+  <si>
+    <t>Gans</t>
+  </si>
+  <si>
+    <t>Gustav</t>
+  </si>
+  <si>
+    <t>Gans@gmx.de</t>
   </si>
 </sst>
 </file>
@@ -404,7 +422,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,35 +465,57 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/admin/lists/Mailadressen.xlsx
+++ b/admin/lists/Mailadressen.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
   <si>
     <t>Nachname</t>
   </si>
@@ -35,6 +35,18 @@
     <t>annelise@gmx.de</t>
   </si>
   <si>
+    <t>blobfisch</t>
+  </si>
+  <si>
+    <t>babsi</t>
+  </si>
+  <si>
+    <t>nina-roeckelein@posteo.de</t>
+  </si>
+  <si>
+    <t>babsii</t>
+  </si>
+  <si>
     <t>Blobfisch</t>
   </si>
   <si>
@@ -44,6 +56,87 @@
     <t>Blobfisch@fischteich.de</t>
   </si>
   <si>
+    <t>emailtest</t>
+  </si>
+  <si>
+    <t>blobfisch@posteo.de</t>
+  </si>
+  <si>
+    <t>emailtest1</t>
+  </si>
+  <si>
+    <t>emailtest2</t>
+  </si>
+  <si>
+    <t>emailtest3</t>
+  </si>
+  <si>
+    <t>emailtest4</t>
+  </si>
+  <si>
+    <t>sqltest</t>
+  </si>
+  <si>
+    <t>sqltest10</t>
+  </si>
+  <si>
+    <t>test@test.de</t>
+  </si>
+  <si>
+    <t>sqltest11</t>
+  </si>
+  <si>
+    <t>sqltest12</t>
+  </si>
+  <si>
+    <t>sqltest13</t>
+  </si>
+  <si>
+    <t>sqltest14</t>
+  </si>
+  <si>
+    <t>sqltest15</t>
+  </si>
+  <si>
+    <t>sqltest16</t>
+  </si>
+  <si>
+    <t>sqltest17</t>
+  </si>
+  <si>
+    <t>sqltest18</t>
+  </si>
+  <si>
+    <t>sqltest19</t>
+  </si>
+  <si>
+    <t>sqltest2</t>
+  </si>
+  <si>
+    <t>sqltest20</t>
+  </si>
+  <si>
+    <t>sqltest21</t>
+  </si>
+  <si>
+    <t>sqltest3</t>
+  </si>
+  <si>
+    <t>sqltest4</t>
+  </si>
+  <si>
+    <t>sqltest42</t>
+  </si>
+  <si>
+    <t>sqltest7</t>
+  </si>
+  <si>
+    <t>sqltest8</t>
+  </si>
+  <si>
+    <t>sqltest9</t>
+  </si>
+  <si>
     <t>Caloni</t>
   </si>
   <si>
@@ -84,6 +177,27 @@
   </si>
   <si>
     <t>Gans@gmx.de</t>
+  </si>
+  <si>
+    <t>Hubertus</t>
+  </si>
+  <si>
+    <t>Hubert</t>
+  </si>
+  <si>
+    <t>Hubert@Hubert.de</t>
+  </si>
+  <si>
+    <t>Huberto</t>
+  </si>
+  <si>
+    <t>Hubertson</t>
+  </si>
+  <si>
+    <t>Röckelein</t>
+  </si>
+  <si>
+    <t>Nina</t>
   </si>
 </sst>
 </file>
@@ -422,7 +536,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,32 +579,32 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -498,24 +612,365 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
         <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
